--- a/result/NCDC_weather_data/stations_imputed/57687099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/57687099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>1.697652</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>9.157177527581329</v>
+      </c>
       <c r="O2" t="n">
         <v>125.96</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.02129414772727273</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,7 +629,9 @@
       <c r="M3" t="n">
         <v>3.08664</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>9.157177527581329</v>
+      </c>
       <c r="O3" t="n">
         <v>134.96</v>
       </c>
@@ -635,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.02129414772727273</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -693,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.02129414772727273</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -751,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0.005588</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.02129414772727273</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -809,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0.005333999999999999</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.02129414772727273</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
